--- a/Casos de Puebas.xlsx
+++ b/Casos de Puebas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\ProyectoFinal\comiqueria\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D29121AB-AEB1-49E5-BB33-F0F674112B72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EB2A38F-3E88-4E54-BCFE-613CA1FE448E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10365" yWindow="-60" windowWidth="16800" windowHeight="11295" xr2:uid="{BCD56C2B-7EFC-4439-B006-08DEE2259B23}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BCD56C2B-7EFC-4439-B006-08DEE2259B23}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -102,9 +102,6 @@
     <t>Dirigió a la página de inicio con el usuario</t>
   </si>
   <si>
-    <t>Login</t>
-  </si>
-  <si>
     <t>Agregar sus datos como un nuevo cliente</t>
   </si>
   <si>
@@ -120,9 +117,6 @@
     <t>Windows</t>
   </si>
   <si>
-    <t>Página para registrarse y buscar comics en distintas comiquerias</t>
-  </si>
-  <si>
     <t>Proyecto Final CoderHouse Python (Comisión 50200)</t>
   </si>
   <si>
@@ -139,6 +133,12 @@
   </si>
   <si>
     <t>Creó nombre, editorial y autor del comic que busca</t>
+  </si>
+  <si>
+    <t>Página para registrarse, registrar el comics que estás buscando, y nosotros nos encargamos de buscarlo por vos en distintas comiquerias del país</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Login </t>
   </si>
 </sst>
 </file>
@@ -556,7 +556,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -574,7 +574,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C1" s="9"/>
       <c r="D1" s="8" t="s">
@@ -613,7 +613,7 @@
         <v>11</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F3" s="10"/>
     </row>
@@ -629,7 +629,7 @@
         <v>10</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F4" s="10"/>
     </row>
@@ -664,7 +664,7 @@
         <v>19</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>20</v>
@@ -681,7 +681,7 @@
         <v>45351</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>21</v>
@@ -701,13 +701,13 @@
         <v>45351</v>
       </c>
       <c r="C9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>24</v>
-      </c>
       <c r="E9" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>14</v>
@@ -721,13 +721,13 @@
         <v>45351</v>
       </c>
       <c r="C10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>14</v>
@@ -744,10 +744,10 @@
         <v>16</v>
       </c>
       <c r="D11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>14</v>
